--- a/Transoped Data/Fallecimientos_tipo.xlsx
+++ b/Transoped Data/Fallecimientos_tipo.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RaFiE\Desktop\Clean_DATA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RaFiE\Desktop\Prescriptive analysis\Transoped Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0330C9F-4F3C-4EF0-AA76-EEE25B4332D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEABC0CF-9726-4EA6-AC66-03FA541E355E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,178 +16,88 @@
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Sheet 1'!$A$1:$C$53</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Sheet 1'!$A$1:$C$52</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Colisiones</t>
   </si>
   <si>
-    <t>1179</t>
-  </si>
-  <si>
     <t>2016</t>
   </si>
   <si>
     <t>Deslizamiento</t>
   </si>
   <si>
-    <t>391</t>
-  </si>
-  <si>
     <t>Atropello</t>
   </si>
   <si>
-    <t>324</t>
-  </si>
-  <si>
     <t>Estrellamiento</t>
   </si>
   <si>
-    <t>67</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>Colisiones con Animales</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
     <t>Aplastamiento</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>Sin Especificación</t>
   </si>
   <si>
-    <t>913</t>
-  </si>
-  <si>
     <t>2017</t>
   </si>
   <si>
-    <t>311</t>
-  </si>
-  <si>
-    <t>275</t>
-  </si>
-  <si>
-    <t>63</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>846</t>
-  </si>
-  <si>
     <t>2018</t>
   </si>
   <si>
-    <t>272</t>
-  </si>
-  <si>
-    <t>241</t>
-  </si>
-  <si>
-    <t>56</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>1219</t>
-  </si>
-  <si>
     <t>2019</t>
   </si>
   <si>
-    <t>423</t>
-  </si>
-  <si>
-    <t>310</t>
-  </si>
-  <si>
-    <t>93</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
     <t>Volcadura</t>
   </si>
   <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>1061</t>
-  </si>
-  <si>
     <t>2020</t>
   </si>
   <si>
-    <t>370</t>
-  </si>
-  <si>
-    <t>214</t>
-  </si>
-  <si>
-    <t>74</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
     <t>2021</t>
   </si>
   <si>
-    <t>322</t>
-  </si>
-  <si>
-    <t>179</t>
-  </si>
-  <si>
-    <t>52</t>
-  </si>
-  <si>
-    <t>Caí­da</t>
-  </si>
-  <si>
     <t>TIPO</t>
+  </si>
+  <si>
+    <t>FALLECIMIENTOS_TOTALES</t>
+  </si>
+  <si>
+    <t>Caída</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -214,17 +124,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -522,242 +433,279 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P19"/>
+  <dimension ref="A1:P18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="36.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.28515625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="22.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B1" s="3" t="s">
+      <c r="A1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1" s="2"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0</v>
+      </c>
+      <c r="E2" s="1">
+        <v>4</v>
+      </c>
+      <c r="F2" s="1">
         <v>2</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="G2" s="1">
+        <v>6</v>
+      </c>
+      <c r="H2" s="1">
+        <f>B2+C2+D2+E2+F2+G2</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="1">
+        <v>324</v>
+      </c>
+      <c r="C3" s="1">
+        <v>275</v>
+      </c>
+      <c r="D3" s="1">
+        <v>241</v>
+      </c>
+      <c r="E3" s="1">
+        <v>310</v>
+      </c>
+      <c r="F3" s="1">
+        <v>214</v>
+      </c>
+      <c r="G3" s="1">
+        <v>179</v>
+      </c>
+      <c r="H3" s="1">
+        <f t="shared" ref="H3:H9" si="0">B3+C3+D3+E3+F3+G3</f>
+        <v>1543</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="1">
         <v>13</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G3" s="4" t="s">
+      <c r="C4" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B4" s="4" t="s">
+      <c r="D4" s="1">
+        <v>6</v>
+      </c>
+      <c r="E4" s="1">
+        <v>11</v>
+      </c>
+      <c r="F4" s="1">
+        <v>7</v>
+      </c>
+      <c r="G4" s="1">
         <v>9</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="F4" s="4" t="s">
+      <c r="H4" s="1">
+        <f t="shared" si="0"/>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="1">
+        <v>1179</v>
+      </c>
+      <c r="C5" s="1">
+        <v>913</v>
+      </c>
+      <c r="D5" s="1">
+        <v>846</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1219</v>
+      </c>
+      <c r="F5" s="1">
+        <v>1061</v>
+      </c>
+      <c r="G5" s="1">
+        <v>965</v>
+      </c>
+      <c r="H5" s="1">
+        <f t="shared" si="0"/>
+        <v>6183</v>
+      </c>
+      <c r="I5" s="3"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="1">
+        <v>391</v>
+      </c>
+      <c r="C6" s="1">
+        <v>311</v>
+      </c>
+      <c r="D6" s="1">
+        <v>272</v>
+      </c>
+      <c r="E6" s="1">
+        <v>423</v>
+      </c>
+      <c r="F6" s="1">
+        <v>370</v>
+      </c>
+      <c r="G6" s="1">
+        <v>322</v>
+      </c>
+      <c r="H6" s="1">
+        <f t="shared" si="0"/>
+        <v>2089</v>
+      </c>
+      <c r="I6" s="3"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1">
+        <v>67</v>
+      </c>
+      <c r="C7" s="1">
+        <v>63</v>
+      </c>
+      <c r="D7" s="1">
+        <v>56</v>
+      </c>
+      <c r="E7" s="1">
+        <v>93</v>
+      </c>
+      <c r="F7" s="1">
+        <v>74</v>
+      </c>
+      <c r="G7" s="1">
+        <v>52</v>
+      </c>
+      <c r="H7" s="1">
+        <f t="shared" si="0"/>
+        <v>405</v>
+      </c>
+      <c r="I7" s="3"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="B8" s="1">
+        <v>7</v>
+      </c>
+      <c r="C8" s="1">
+        <v>6</v>
+      </c>
+      <c r="D8" s="1">
+        <v>4</v>
+      </c>
+      <c r="E8" s="1">
+        <v>9</v>
+      </c>
+      <c r="F8" s="1">
+        <v>3</v>
+      </c>
+      <c r="G8" s="1">
+        <v>6</v>
+      </c>
+      <c r="H8" s="1">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="I8" s="3"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1">
         <v>0</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="C9" s="1">
+        <v>0</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0</v>
+      </c>
+      <c r="E9" s="1">
         <v>1</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="G5" s="4">
-        <v>965</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>21</v>
-      </c>
+      <c r="F9" s="1">
+        <v>1</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0</v>
+      </c>
+      <c r="H9" s="1">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="I9" s="3"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="G10" s="4"/>
+      <c r="I10" s="3"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P13" s="1"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="P14" s="1"/>
@@ -774,12 +722,9 @@
     <row r="18" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P18" s="1"/>
     </row>
-    <row r="19" spans="16:16" x14ac:dyDescent="0.25">
-      <c r="P19" s="1"/>
-    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="O14:P19">
-    <sortCondition descending="1" ref="O14:O19"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="O13:P18">
+    <sortCondition descending="1" ref="O13:O18"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Transoped Data/Fallecimientos_tipo.xlsx
+++ b/Transoped Data/Fallecimientos_tipo.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RaFiE\Desktop\Clean_DATA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rafiel\Desktop\DIGESETT-data-analysis\Transoped Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0330C9F-4F3C-4EF0-AA76-EEE25B4332D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47C47C41-5112-447D-A242-D9CE28F33E5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -175,10 +175,10 @@
     <t>52</t>
   </si>
   <si>
-    <t>Caí­da</t>
-  </si>
-  <si>
     <t>TIPO</t>
+  </si>
+  <si>
+    <t>Caída</t>
   </si>
 </sst>
 </file>
@@ -220,11 +220,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -525,7 +525,7 @@
   <dimension ref="A1:P19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -537,7 +537,7 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>2</v>
@@ -606,7 +606,7 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>9</v>
@@ -666,8 +666,12 @@
       <c r="E6" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
+      <c r="F6" s="4">
+        <v>0</v>
+      </c>
+      <c r="G6" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
@@ -757,7 +761,9 @@
       <c r="F10" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="G10" s="4"/>
+      <c r="G10" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="P14" s="1"/>
